--- a/Database/RaceIDs.xlsx
+++ b/Database/RaceIDs.xlsx
@@ -41939,31 +41939,31 @@
         <v>102</v>
       </c>
       <c r="M620" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N620" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O620" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P620" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Q620" t="n">
-        <v>0</v>
+        <v>137.131</v>
       </c>
       <c r="R620" t="n">
-        <v>0</v>
+        <v>184.849</v>
       </c>
       <c r="S620" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T620" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U620" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="621">
@@ -44087,28 +44087,28 @@
         <v>38</v>
       </c>
       <c r="N653" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O653" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P653" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Q653" t="n">
-        <v>0</v>
+        <v>135.489</v>
       </c>
       <c r="R653" t="n">
-        <v>0</v>
+        <v>179.063</v>
       </c>
       <c r="S653" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T653" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U653" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="654">
